--- a/va_facility_data_2025-02-20/Covington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Covington%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Covington VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Covington%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9e6114e3d95c4d90be011fe8a3a844f8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdddecbbde9f64e0a8d45cb9ed92ab079"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R86314638df7d48ed9e80c30e827a5bc7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R619873bfd21d47efb761d7610068a871"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcd3f8a6153fb4b6b87f7bad2d47a84aa"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R44277c98d3ca4519815c59105cd1fa11"/>
   </x:sheets>
 </x:workbook>
 </file>
